--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/経済ファイル/02_分析/08_点検/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{8DCD363E-FD00-450C-9E50-A33FC03D72B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{307C61FC-497B-4375-A1AF-0ACE86CF44D3}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{8DCD363E-FD00-450C-9E50-A33FC03D72B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26FF3837-F172-49E5-8516-6F5C09F3350D}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{342424D5-392E-421C-BB2D-F16C5D781F66}"/>
   </bookViews>
@@ -16,15 +16,10 @@
     <sheet name="G" sheetId="2" r:id="rId1"/>
     <sheet name="ベンチ" sheetId="1" r:id="rId2"/>
     <sheet name="物価_75" sheetId="5" r:id="rId3"/>
-    <sheet name="G (3)" sheetId="6" r:id="rId4"/>
-    <sheet name="物価_50" sheetId="7" r:id="rId5"/>
-    <sheet name="G (4)" sheetId="8" r:id="rId6"/>
-    <sheet name="物価_50 (2)" sheetId="9" r:id="rId7"/>
+    <sheet name="物価_50" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">G!$A$1:$O$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'G (3)'!$A$1:$O$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'G (4)'!$A$1:$O$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t>需給ギャップ</t>
     <rPh sb="0" eb="2">
@@ -90,16 +85,6 @@
   </si>
   <si>
     <t>ゼロ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ベンチマーク：rho=0.75, 輸入物価ショックなし</t>
-    <rPh sb="17" eb="19">
-      <t>ユニュウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ブッカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -215,11 +200,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,421 +1067,6 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-              <a:cs typeface="ＭＳ ゴシック"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="ＭＳ ゴシック"/>
-          <a:ea typeface="ＭＳ ゴシック"/>
-          <a:cs typeface="ＭＳ ゴシック"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10540233076776417"/>
-          <c:y val="9.5123027297075252E-2"/>
-          <c:w val="0.83208394199593816"/>
-          <c:h val="0.81169163212805151"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'物価_50 (2)'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>需給ギャップ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'物価_50 (2)'!$A$3:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'物価_50 (2)'!$I$3:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.63153424499718303</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.49456071770078</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9014205308121499</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.51884688746395</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.52454134423422905</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.41219039119524598</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.81766772739112503</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.63469755523853599</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-7.6362963975928594E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.523342436854355</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.98356801056724996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2AAC-4F15-A23D-138846FBA483}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'物価_50 (2)'!$O$3:$O$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2AAC-4F15-A23D-138846FBA483}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="344480831"/>
-        <c:axId val="344486591"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="344480831"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ ゴシック"/>
-                <a:ea typeface="ＭＳ ゴシック"/>
-                <a:cs typeface="ＭＳ ゴシック"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="344486591"/>
-        <c:crossesAt val="-100"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="4"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="344486591"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ ゴシック"/>
-                <a:ea typeface="ＭＳ ゴシック"/>
-                <a:cs typeface="ＭＳ ゴシック"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="344480831"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.61291945267617387"/>
-          <c:y val="0.12908634259259261"/>
-          <c:w val="0.31673097976958764"/>
-          <c:h val="0.14781785984552101"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4601,2264 +4171,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10540233076776417"/>
-          <c:y val="9.5123027297075252E-2"/>
-          <c:w val="0.83208394199593816"/>
-          <c:h val="0.81169163212805151"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>物価_50!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>インフレ率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>物価_50!$A$3:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>物価_50!$J$3:$J$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.6911759484636368</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6639077566822502</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.09027113405608</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.7269900539371204</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0817850100375601</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.1375232225400098</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.46398096756473</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1281101082690297</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0609707616051702</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0169537744685702</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.973188420587656</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FCF1-4B3F-8779-A8B8E60CCB30}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>物価_50!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>期待インフレ率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>物価_50!$A$3:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>物価_50!$K$3:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.4076574003871509</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.873566890092798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7976879886672599</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8960302248853402</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.55995280889098</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.12751058713661</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.6016326437618797</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2589271745102701</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0820678131266099</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0379275894904403</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.888062036266456</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FCF1-4B3F-8779-A8B8E60CCB30}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>物価_50!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>物価観</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>物価_50!$A$3:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>物価_50!$L$3:$L$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0622058353617274</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.206359008280574</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3759110996003701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6775082054906769</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8938931178998959</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0058198273175103</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0470543299397601</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0543493499893897</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0549452770348102</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0515260418038501</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0444756558943897</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FCF1-4B3F-8779-A8B8E60CCB30}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>物価_50!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>名目金利</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="002060"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>物価_50!$A$3:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>物価_50!$M$3:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.92626552259702333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.834703758235392</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.71041036236279</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.2801594435002199</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3325538153368406</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.4163717267746101</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3517546572130703</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6132855209986778</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.333280090709237</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3101909854196341</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3808788107923711</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FCF1-4B3F-8779-A8B8E60CCB30}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>物価_50!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>インフレ目標</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>物価_50!$A$3:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>物価_50!$N$3:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FCF1-4B3F-8779-A8B8E60CCB30}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>物価_50!$O$3:$O$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FCF1-4B3F-8779-A8B8E60CCB30}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="344480831"/>
-        <c:axId val="344486591"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="344480831"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ ゴシック"/>
-                <a:ea typeface="ＭＳ ゴシック"/>
-                <a:cs typeface="ＭＳ ゴシック"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="344486591"/>
-        <c:crossesAt val="-100"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="4"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="344486591"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="-1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ ゴシック"/>
-                <a:ea typeface="ＭＳ ゴシック"/>
-                <a:cs typeface="ＭＳ ゴシック"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="344480831"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.55423239834839477"/>
-          <c:y val="0.10187363481918943"/>
-          <c:w val="0.38393312492664866"/>
-          <c:h val="0.25056040311116762"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-              <a:cs typeface="ＭＳ ゴシック"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="ＭＳ ゴシック"/>
-          <a:ea typeface="ＭＳ ゴシック"/>
-          <a:cs typeface="ＭＳ ゴシック"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10540233076776417"/>
-          <c:y val="9.5123027297075252E-2"/>
-          <c:w val="0.83208394199593816"/>
-          <c:h val="0.81169163212805151"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>物価_50!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>需給ギャップ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>物価_50!$A$3:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>物価_50!$I$3:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.63153424499718303</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.49456071770078</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9014205308121499</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.51884688746395</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.52454134423422905</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.41219039119524598</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.81766772739112503</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.63469755523853599</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-7.6362963975928594E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.523342436854355</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.98356801056724996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FEEF-45BA-9967-E511973D9A5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>物価_50!$O$3:$O$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FEEF-45BA-9967-E511973D9A5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="344480831"/>
-        <c:axId val="344486591"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="344480831"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ ゴシック"/>
-                <a:ea typeface="ＭＳ ゴシック"/>
-                <a:cs typeface="ＭＳ ゴシック"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="344486591"/>
-        <c:crossesAt val="-100"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="4"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="344486591"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ ゴシック"/>
-                <a:ea typeface="ＭＳ ゴシック"/>
-                <a:cs typeface="ＭＳ ゴシック"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="344480831"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.61291945267617387"/>
-          <c:y val="0.12908634259259261"/>
-          <c:w val="0.31673097976958764"/>
-          <c:h val="0.14781785984552101"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-              <a:cs typeface="ＭＳ ゴシック"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="ＭＳ ゴシック"/>
-          <a:ea typeface="ＭＳ ゴシック"/>
-          <a:cs typeface="ＭＳ ゴシック"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10540233076776417"/>
-          <c:y val="9.5123027297075252E-2"/>
-          <c:w val="0.83208394199593816"/>
-          <c:h val="0.81169163212805151"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'物価_50 (2)'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>インフレ率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'物価_50 (2)'!$A$3:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'物価_50 (2)'!$J$3:$J$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.6249602568078001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4978973579781001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8337791051228303</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4002189469693702</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8008460446724799</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0314845879740902</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5709396734427199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.3803016316363497</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3420727280932701</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2332268115771399</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0921990707668501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F5C-48BD-8BF3-3E3D03034365}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'物価_50 (2)'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>期待インフレ率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'物価_50 (2)'!$A$3:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'物価_50 (2)'!$K$3:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.366984852704636</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.776098847052731</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6294310478454497</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.68834220540124</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3534315107957999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9911862241192297</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5878922784604201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.36324895770717</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2505331924693199</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2044257506056697</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0066776381002898</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0F5C-48BD-8BF3-3E3D03034365}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'物価_50 (2)'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>物価観</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'物価_50 (2)'!$A$3:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'物価_50 (2)'!$L$3:$L$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.056246423112702</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.185995007250588</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.33429557605909</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.610228679441015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8073842423118469</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9175532734214489</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.976358049423363</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0127129718225301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0423553498869</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0595337814390202</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0624736574785203</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0F5C-48BD-8BF3-3E3D03034365}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'物価_50 (2)'!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>名目金利</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="002060"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'物価_50 (2)'!$A$3:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'物価_50 (2)'!$M$3:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.81768400053756607</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.996302640415992</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7347775169995701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4229041283374002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8491591085990202</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.6927813010882797</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.940614521340156</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7003203455650611</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7670941772410571</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.777067823561856</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6875626269256849</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0F5C-48BD-8BF3-3E3D03034365}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'物価_50 (2)'!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>インフレ目標</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'物価_50 (2)'!$A$3:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'物価_50 (2)'!$N$3:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0F5C-48BD-8BF3-3E3D03034365}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'物価_50 (2)'!$O$3:$O$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0F5C-48BD-8BF3-3E3D03034365}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="344480831"/>
-        <c:axId val="344486591"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="344480831"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ ゴシック"/>
-                <a:ea typeface="ＭＳ ゴシック"/>
-                <a:cs typeface="ＭＳ ゴシック"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="344486591"/>
-        <c:crossesAt val="-100"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="4"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="344486591"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="-1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ ゴシック"/>
-                <a:ea typeface="ＭＳ ゴシック"/>
-                <a:cs typeface="ＭＳ ゴシック"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="344480831"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.55423239834839477"/>
-          <c:y val="0.10187363481918943"/>
-          <c:w val="0.38393312492664866"/>
-          <c:h val="0.25056040311116762"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-              <a:cs typeface="ＭＳ ゴシック"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="ＭＳ ゴシック"/>
-          <a:ea typeface="ＭＳ ゴシック"/>
-          <a:cs typeface="ＭＳ ゴシック"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7098,126 +4411,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7734,7 +4927,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8250,7 +5443,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8766,7 +5959,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9282,7 +6475,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9798,2071 +6991,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12609,492 +7738,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.13367</cdr:x>
-      <cdr:y>0</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.369</cdr:x>
-      <cdr:y>0.04945</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4E025C-7C8D-D8AE-D3EE-CC0EEAD7C7DB}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="676275" y="0"/>
-          <a:ext cx="1190625" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08095</cdr:x>
-      <cdr:y>0.00941</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.41795</cdr:x>
-      <cdr:y>0.09647</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E5B2C2-E803-2B04-DDEB-EE5E8143FE79}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="409575" y="38099"/>
-          <a:ext cx="1704975" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>（％）</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.893</cdr:x>
-      <cdr:y>0.91052</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.98337</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E21FA7-941F-61F4-6AAB-DD7F993CAB32}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4518025" y="3683001"/>
-          <a:ext cx="457200" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>年</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>82600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>211550</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F5F76C-FA40-4A49-BF22-D057AA561A0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>34926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238175</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>8351</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F186E6EC-7AE7-48D1-BDE6-1D02F8BF2EE9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.13367</cdr:x>
-      <cdr:y>0</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.369</cdr:x>
-      <cdr:y>0.04945</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4E025C-7C8D-D8AE-D3EE-CC0EEAD7C7DB}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="676275" y="0"/>
-          <a:ext cx="1190625" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08095</cdr:x>
-      <cdr:y>0.00941</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.41795</cdr:x>
-      <cdr:y>0.09647</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E5B2C2-E803-2B04-DDEB-EE5E8143FE79}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="409575" y="38099"/>
-          <a:ext cx="1704975" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>（％）</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.893</cdr:x>
-      <cdr:y>0.91052</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.98337</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E21FA7-941F-61F4-6AAB-DD7F993CAB32}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4518025" y="3683001"/>
-          <a:ext cx="457200" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>年</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.13367</cdr:x>
-      <cdr:y>0</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.369</cdr:x>
-      <cdr:y>0.04945</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4E025C-7C8D-D8AE-D3EE-CC0EEAD7C7DB}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="676275" y="0"/>
-          <a:ext cx="1190625" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08095</cdr:x>
-      <cdr:y>0.00941</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.41795</cdr:x>
-      <cdr:y>0.09647</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E5B2C2-E803-2B04-DDEB-EE5E8143FE79}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="409575" y="38099"/>
-          <a:ext cx="1704975" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>（％）</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.893</cdr:x>
-      <cdr:y>0.91052</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.98337</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E21FA7-941F-61F4-6AAB-DD7F993CAB32}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4518025" y="3683001"/>
-          <a:ext cx="457200" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>年</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14035,222 +8678,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>82600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>211550</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06DD79C-7597-4BE7-9FE6-B9A6C7FEF22A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>34926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238175</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>8351</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D4EA6E-F2C8-419C-81CC-775E05B65E4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.13367</cdr:x>
-      <cdr:y>0</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.369</cdr:x>
-      <cdr:y>0.04945</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4E025C-7C8D-D8AE-D3EE-CC0EEAD7C7DB}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="676275" y="0"/>
-          <a:ext cx="1190625" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08095</cdr:x>
-      <cdr:y>0.00941</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.41795</cdr:x>
-      <cdr:y>0.09647</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E5B2C2-E803-2B04-DDEB-EE5E8143FE79}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="409575" y="38099"/>
-          <a:ext cx="1704975" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>（％）</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.893</cdr:x>
-      <cdr:y>0.91052</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.98337</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E21FA7-941F-61F4-6AAB-DD7F993CAB32}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4518025" y="3683001"/>
-          <a:ext cx="457200" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>年</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -14560,37 +8987,37 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
@@ -15490,7 +9917,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <f>A2+0.25</f>
         <v>0.25</v>
       </c>
@@ -15544,7 +9971,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <f t="shared" ref="A4:A15" si="5">A3+0.25</f>
         <v>0.5</v>
       </c>
@@ -15598,7 +10025,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
@@ -15652,7 +10079,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -15706,7 +10133,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
@@ -15760,7 +10187,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
@@ -15814,7 +10241,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <f t="shared" si="5"/>
         <v>1.75</v>
       </c>
@@ -15868,7 +10295,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -15922,7 +10349,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <f t="shared" si="5"/>
         <v>2.25</v>
       </c>
@@ -15976,7 +10403,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
@@ -16030,7 +10457,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <f t="shared" si="5"/>
         <v>2.75</v>
       </c>
@@ -16084,7 +10511,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -16138,7 +10565,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <f t="shared" si="5"/>
         <v>3.25</v>
       </c>
@@ -16198,29 +10625,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B107B80-6C2A-495C-A50D-B48429F77F3A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6E00F-E953-4BB3-9613-32933EEBF6ED}">
   <dimension ref="A1:O15"/>
   <sheetViews>
@@ -16325,7 +10729,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <f>A2+0.25</f>
         <v>0.25</v>
       </c>
@@ -16376,7 +10780,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <f t="shared" ref="A4:A15" si="5">A3+0.25</f>
         <v>0.5</v>
       </c>
@@ -16427,7 +10831,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
@@ -16478,7 +10882,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -16529,7 +10933,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
@@ -16580,7 +10984,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
@@ -16631,7 +11035,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <f t="shared" si="5"/>
         <v>1.75</v>
       </c>
@@ -16682,7 +11086,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -16733,7 +11137,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <f t="shared" si="5"/>
         <v>2.25</v>
       </c>
@@ -16784,7 +11188,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
@@ -16835,7 +11239,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <f t="shared" si="5"/>
         <v>2.75</v>
       </c>
@@ -16886,7 +11290,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -16937,7 +11341,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <f t="shared" si="5"/>
         <v>3.25</v>
       </c>
@@ -16984,802 +11388,6 @@
       </c>
       <c r="O15">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272F31A1-8B75-4CA8-A744-E20DE89ABC21}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33C2412-0FA5-4BD5-BA2D-046F41B962AB}">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="8" max="8" width="1.9140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>C2+1</f>
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ref="K2:N15" si="0">D2+1</f>
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6">
-        <f>A2+0.25</f>
-        <v>0.25</v>
-      </c>
-      <c r="B3">
-        <v>0.63894323101010997</v>
-      </c>
-      <c r="C3">
-        <v>0.62496025680779999</v>
-      </c>
-      <c r="D3">
-        <v>0.36698485270463599</v>
-      </c>
-      <c r="E3">
-        <v>5.6246423112701997E-2</v>
-      </c>
-      <c r="F3">
-        <v>-0.18231599946243399</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0.63153424499718303</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J15" si="1">C3+1</f>
-        <v>1.6249602568078001</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="0"/>
-        <v>1.366984852704636</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>1.056246423112702</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="0"/>
-        <v>0.81768400053756607</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <f>O2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6">
-        <f t="shared" ref="A4:A15" si="2">A3+0.25</f>
-        <v>0.5</v>
-      </c>
-      <c r="B4">
-        <v>1.28465896681662</v>
-      </c>
-      <c r="C4">
-        <v>1.4978973579781001</v>
-      </c>
-      <c r="D4">
-        <v>0.77609884705273102</v>
-      </c>
-      <c r="E4">
-        <v>0.18599500725058801</v>
-      </c>
-      <c r="F4">
-        <v>0.99630264041599204</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1.49456071770078</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
-        <v>2.4978973579781001</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>1.776098847052731</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>1.185995007250588</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>1.996302640415992</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O15" si="3">O3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="B5">
-        <v>1.46053430301971</v>
-      </c>
-      <c r="C5">
-        <v>1.83377910512283</v>
-      </c>
-      <c r="D5">
-        <v>1.6294310478454499</v>
-      </c>
-      <c r="E5">
-        <v>0.33429557605908999</v>
-      </c>
-      <c r="F5">
-        <v>1.7347775169995701</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1.9014205308121499</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>2.8337791051228303</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>2.6294310478454497</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>1.33429557605909</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>2.7347775169995701</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0.77056915665855896</v>
-      </c>
-      <c r="C6">
-        <v>3.4002189469693702</v>
-      </c>
-      <c r="D6">
-        <v>1.68834220540124</v>
-      </c>
-      <c r="E6">
-        <v>0.610228679441015</v>
-      </c>
-      <c r="F6">
-        <v>3.4229041283374002</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1.51884688746395</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>4.4002189469693702</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>2.68834220540124</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>1.610228679441015</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>4.4229041283374002</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="6">
-        <f t="shared" si="2"/>
-        <v>1.25</v>
-      </c>
-      <c r="B7">
-        <v>-8.6716596644966504E-2</v>
-      </c>
-      <c r="C7">
-        <v>2.8008460446724799</v>
-      </c>
-      <c r="D7">
-        <v>2.3534315107957999</v>
-      </c>
-      <c r="E7">
-        <v>0.80738424231184702</v>
-      </c>
-      <c r="F7">
-        <v>2.8491591085990202</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0.52454134423422905</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>3.8008460446724799</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>3.3534315107957999</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>1.8073842423118469</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>3.8491591085990202</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="6">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="B8">
-        <v>-0.479809700086199</v>
-      </c>
-      <c r="C8">
-        <v>2.0314845879740902</v>
-      </c>
-      <c r="D8">
-        <v>1.99118622411923</v>
-      </c>
-      <c r="E8">
-        <v>0.91755327342144899</v>
-      </c>
-      <c r="F8">
-        <v>1.69278130108828</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>-0.41219039119524598</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>3.0314845879740902</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>2.9911862241192297</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>1.9175532734214489</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>2.6927813010882797</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="6">
-        <f t="shared" si="2"/>
-        <v>1.75</v>
-      </c>
-      <c r="B9">
-        <v>-0.33303449747993902</v>
-      </c>
-      <c r="C9">
-        <v>1.5709396734427199</v>
-      </c>
-      <c r="D9">
-        <v>1.5878922784604199</v>
-      </c>
-      <c r="E9">
-        <v>0.97635804942336302</v>
-      </c>
-      <c r="F9">
-        <v>0.940614521340156</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>-0.81766772739112503</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>2.5709396734427199</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>2.5878922784604201</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>1.976358049423363</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>1.940614521340156</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>9.9539679037676604E-2</v>
-      </c>
-      <c r="C10">
-        <v>1.3803016316363499</v>
-      </c>
-      <c r="D10">
-        <v>1.36324895770717</v>
-      </c>
-      <c r="E10">
-        <v>1.0127129718225301</v>
-      </c>
-      <c r="F10">
-        <v>0.70032034556506095</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>-0.63469755523853599</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>2.3803016316363497</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>2.36324895770717</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>2.0127129718225301</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>1.7003203455650611</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="6">
-        <f t="shared" si="2"/>
-        <v>2.25</v>
-      </c>
-      <c r="B11">
-        <v>0.552486057986316</v>
-      </c>
-      <c r="C11">
-        <v>1.3420727280932701</v>
-      </c>
-      <c r="D11">
-        <v>1.2505331924693199</v>
-      </c>
-      <c r="E11">
-        <v>1.0423553498869</v>
-      </c>
-      <c r="F11">
-        <v>0.767094177241057</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>-7.6362963975928594E-2</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>2.3420727280932701</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>2.2505331924693199</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>2.0423553498869</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>1.7670941772410571</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="6">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="B12">
-        <v>0.86110430993949605</v>
-      </c>
-      <c r="C12">
-        <v>1.2332268115771401</v>
-      </c>
-      <c r="D12">
-        <v>1.2044257506056699</v>
-      </c>
-      <c r="E12">
-        <v>1.05953378143902</v>
-      </c>
-      <c r="F12">
-        <v>0.777067823561856</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0.523342436854355</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>2.2332268115771399</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>2.2044257506056697</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>2.0595337814390202</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>1.777067823561856</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="6">
-        <f t="shared" si="2"/>
-        <v>2.75</v>
-      </c>
-      <c r="B13">
-        <v>1.03885791046003</v>
-      </c>
-      <c r="C13">
-        <v>1.0921990707668501</v>
-      </c>
-      <c r="D13">
-        <v>1.00667763810029</v>
-      </c>
-      <c r="E13">
-        <v>1.0624736574785201</v>
-      </c>
-      <c r="F13">
-        <v>0.68756262692568504</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0.98356801056724996</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>2.0921990707668501</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>2.0066776381002898</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>2.0624736574785203</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>1.6875626269256849</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="6">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>1.07492450665441</v>
-      </c>
-      <c r="C14">
-        <v>0.489318849162311</v>
-      </c>
-      <c r="D14">
-        <v>0.81703031804045001</v>
-      </c>
-      <c r="E14">
-        <v>1.0108897247300701</v>
-      </c>
-      <c r="F14">
-        <v>4.7105203442651802E-4</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1.0924682153580401</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>1.4893188491623111</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>1.8170303180404499</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>2.0108897247300703</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
-        <v>1.0004710520344264</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="6">
-        <f t="shared" si="2"/>
-        <v>3.25</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
